--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Catégorie</t>
   </si>
@@ -45,41 +45,183 @@
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>Alt du logo de la page d'accueil est :&lt;img src="img/la-chouette-agence.png" alt="paris web design logo agence web meilleure agence" height="40"&gt;</t>
-  </si>
-  <si>
-    <t>Cela devrait être remplacé par Entreprise web design Lyon</t>
-  </si>
-  <si>
-    <t>Texte orange et fond gris / Texte blanc et fond #F3976C</t>
-  </si>
-  <si>
-    <t>Le contrast ratio : le bloc de présentation</t>
-  </si>
-  <si>
-    <t>&lt;title&gt;.&lt;/title&gt;</t>
-  </si>
-  <si>
-    <t>Le point doit être remplacé par "la chouette agence"</t>
-  </si>
-  <si>
-    <t>La nav doit être modifiée car accueil ne sert à rien et page2 doit être remplacé par contact</t>
-  </si>
-  <si>
-    <t>Le text orange plus bas</t>
-  </si>
-  <si>
-    <t>Footer: les partenaires doivent être retirés</t>
-  </si>
-  <si>
-    <t>Footer: les listes des annuaires doivent être retirés</t>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941044-inspectez-manuellement-le-contenu</t>
+  </si>
+  <si>
+    <t>Pour le texte ordinaire, le rapport de contraste doit être de 4.5:1 ou plus. Pour le texte de grande taille (18pt+) ou plus gras (14pt+) et pour le contenu non textuel important, tel que les icônes, il peut être un peu inférieur (3:1 ou plus).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le texte orange n'est pas assez lisible sur le fond gris, et le texte blanc n'est pas assez lisible sur le fond orange.
+Les icones de réseaux sociaux ne sont pas assez visibles.
+</t>
+  </si>
+  <si>
+    <t>SEO et accessibilité</t>
+  </si>
+  <si>
+    <t>La largeur des paragraphes n'a pas été adapté à la taille d'un écran mobile.</t>
+  </si>
+  <si>
+    <t>En version mobile, deux paragraphes sont coupés.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055226-pensez-mobile-first</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5603511-nouez-des-partenariats</t>
+  </si>
+  <si>
+    <t>Trouver des partenaires dans le même secteur d'activité.</t>
+  </si>
+  <si>
+    <t>Le contraste des couleurs doit respecter le niveau AA de WCAG 2.1.</t>
+  </si>
+  <si>
+    <t>Au niveau du footer, les partenaires doivent être retirés, ainsi que les listes des annuaires.</t>
+  </si>
+  <si>
+    <t>Les partenaires et les listes des annuaires ne sont pas pertinents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En version desktop, la nav doit être modifiée car celle-ci n'est pas pertinente : "accueil" n'apporte rien de nouveau et "page2" redirige vers la page Contact.
+En version mobile, la nav est inexistante.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En version desktop, la nav n'est pas pertinente et en version mobile, la nav est inexistante.
+</t>
+  </si>
+  <si>
+    <t>Le format bmp ralentit la vitesse de chargement d'une page</t>
+  </si>
+  <si>
+    <t>https://www.pixelcrea.com/blog/semantique-seo-page/</t>
+  </si>
+  <si>
+    <t>https://imageseo.io/fr/images-seo-optimization/</t>
+  </si>
+  <si>
+    <t>Les images devraient être au format jpg pour que le chargement de la page soit plus rapide et conserver la qualité des images.</t>
+  </si>
+  <si>
+    <t>Les paragraphes devraient être remplacés en texte brut car ils sont affichés sous forme d'images. Le site doit être responsive ou disponible en version mobile.</t>
+  </si>
+  <si>
+    <t>Le contenu du site ne peut pas être mis à jour régulièrement.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5604431-installez-les-bons-outils</t>
+  </si>
+  <si>
+    <t>Aucune veille SEO n'est prévue pour connaître le profil des visiteurs et les mots clés qui nous apportent du trafic.</t>
+  </si>
+  <si>
+    <t>Aucune veille SEO avec les outils Google Analytics et Google Search Console</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>La veille SEO est essentielle pour être à l'affût du comportement des visiteurs et s'adapter à ce qu'ils recherchent afin d'augmenter le trafic.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578344-creez-votre-machine-a-contenu</t>
+  </si>
+  <si>
+    <t>Aucun espace dédié à du nouveau contenu.</t>
+  </si>
+  <si>
+    <t>Afin d'avoir plus de nouveaux visiteurs et des pages indexées par Google, il est encouragé de créer du contenu de qualité.</t>
+  </si>
+  <si>
+    <t>Créer une machine à contenu</t>
+  </si>
+  <si>
+    <t>Mettre en place une veille SEO</t>
+  </si>
+  <si>
+    <t>Optimiser les images pour améliorer le temps de chargement de la page</t>
+  </si>
+  <si>
+    <t>S'assurer que tout le contenu du site est pertinent</t>
+  </si>
+  <si>
+    <t>Nouer des partenariats</t>
+  </si>
+  <si>
+    <t>Structurer le site et faciliter la compréhension</t>
+  </si>
+  <si>
+    <t>S'assurer que tous les mots-clés soient corrects et pertinents</t>
+  </si>
+  <si>
+    <t>Le site doit être responsive et les images avec du texte doivent être retirées</t>
+  </si>
+  <si>
+    <t>Le contraste des couleurs ne respecte pas le niveau AA de WCAG 2.1.</t>
+  </si>
+  <si>
+    <t>Présence de mots-clés cachés en blanc sur un fond blanc</t>
+  </si>
+  <si>
+    <t>La dissimulation de mots-clés est une technique Black hat qui peut être pénalisante.</t>
+  </si>
+  <si>
+    <t>Eviter les techniques Black hat</t>
+  </si>
+  <si>
+    <t>Privilégier les techniques SEO White hat</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5561438-analysez-le-fonctionnement-de-google</t>
+  </si>
+  <si>
+    <t>La langue définie dans le HTML est default.
+Le site n'a ni de meta description ni de titre.
+Les balises sémantiques ne sont pas utilisées.
+L'ordre des titres n'est pas logique.</t>
+  </si>
+  <si>
+    <t>Il est important de définir correctement la langue pour que Google comprenne que l'audience du site est francophone.
+Les balises meta doivent être incluses pour résumer le contenu de la page.
+L'absence de structure sémantique freine la compréhension de la page par les moteurs de recherche et les utilisateurs aveugles.
+Les h1 sont suivis d'un h3 au lieu d'un h2.</t>
+  </si>
+  <si>
+    <t>Utiliser l'attribut "lang" pour Indiquer que le contenu est en  français.
+Les balises sémantiques  indiquent aux moteurs de recherche de quoi traite la page. Elles sont aussi affichées dans les résultats. Elles doivent contenir le mot-clé visé et donner envie au visiteur de cliquer pour lire votre page.</t>
+  </si>
+  <si>
+    <t>Les balises "alt" des images et logos sont incorrectes. Celles-ci indiquent par exemple que l'agence est à Paris.
+La balise name="keywords" est inutile.
+Les liens des icones de réseaux sociaux n'ont pas de descriptions.</t>
+  </si>
+  <si>
+    <t>Les balises "alt" sont incorrectes sur les images et les logos.
+Google ne tient pas compte de la balise name="keywords".
+Sans texte explicatif, les liens des icones de reseaux sociaux resteront incompréhensibles.</t>
+  </si>
+  <si>
+    <t>Toutes les images doivent avoir des balises "alt" qui expliquent le contenu de l'image et s'affichent quand les images ne peuvent pas être chargées.
+Il faut éviter d'ajouter des balises inutiles.
+Les liens doivent avoir des descriptions pour faciliter la compréhension et améliorer l'expérience du visiteur.</t>
+  </si>
+  <si>
+    <t>Les images ne sont pas toutes au format jpg, ne sont pas compressées et n'ont pas les mêmes dimensions.</t>
+  </si>
+  <si>
+    <t>La nav doit permettre au visiteur de pouvoir contacter l'équipe de La chouette agence facilement.
+Le nom "page2" doit être remplacé par "Contact".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,18 +241,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -143,26 +282,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -373,15 +515,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.36328125" customWidth="1"/>
+    <col min="1" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
     <col min="5" max="5" width="18.81640625" customWidth="1"/>
     <col min="6" max="6" width="21.36328125" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
@@ -427,127 +570,213 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:26" ht="234.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="170.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:26" ht="343.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="7" spans="1:26" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>0</v>
+    <row r="8" spans="1:26" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="9" spans="1:26" ht="152.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>0</v>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="10" spans="1:26" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>0</v>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="4" t="b">
-        <v>0</v>
+    <row r="11" spans="1:26" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1525,16 +1754,13 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Catégorie</t>
   </si>
@@ -215,6 +215,21 @@
   <si>
     <t>La nav doit permettre au visiteur de pouvoir contacter l'équipe de La chouette agence facilement.
 Le nom "page2" doit être remplacé par "Contact".</t>
+  </si>
+  <si>
+    <t>Le cache de la page est paramétré sur 10 minutes alors que c'est une page statique</t>
+  </si>
+  <si>
+    <t>Le cache est paramétré sur 10 minutes et cela peut ralentir le chargement de la page</t>
+  </si>
+  <si>
+    <t>Il est préférable de paramétrer les éléments de la page statiques sur un an et le reste, sur une semaine</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055236-parametrez-le-cache-navigateur</t>
+  </si>
+  <si>
+    <t>Paramétrer le cache navigateur pour optimiser la vitesse du site</t>
   </si>
 </sst>
 </file>
@@ -517,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -773,7 +788,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>Catégorie</t>
   </si>
@@ -230,13 +230,28 @@
   </si>
   <si>
     <t>Paramétrer le cache navigateur pour optimiser la vitesse du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'appel aux fichiers Javascript n'est pas correctement paramétré. </t>
+  </si>
+  <si>
+    <t>Si on ne paramétre pas correctement l’appel aux fichiers JavaScript, ils bloqueront l’affichage de la page jusqu’à ce qu’ils soient entièrement chargés. </t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
+  </si>
+  <si>
+    <t>Débloquer le téléchargement des pages</t>
+  </si>
+  <si>
+    <t>Il faut paramétrer l'appel aux fichiers Javascript.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,8 +281,23 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +308,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -301,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,6 +352,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -533,7 +576,7 @@
   <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -748,67 +791,86 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="143.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:26" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:26" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>Catégorie</t>
   </si>
@@ -195,21 +195,6 @@
 Les balises sémantiques  indiquent aux moteurs de recherche de quoi traite la page. Elles sont aussi affichées dans les résultats. Elles doivent contenir le mot-clé visé et donner envie au visiteur de cliquer pour lire votre page.</t>
   </si>
   <si>
-    <t>Les balises "alt" des images et logos sont incorrectes. Celles-ci indiquent par exemple que l'agence est à Paris.
-La balise name="keywords" est inutile.
-Les liens des icones de réseaux sociaux n'ont pas de descriptions.</t>
-  </si>
-  <si>
-    <t>Les balises "alt" sont incorrectes sur les images et les logos.
-Google ne tient pas compte de la balise name="keywords".
-Sans texte explicatif, les liens des icones de reseaux sociaux resteront incompréhensibles.</t>
-  </si>
-  <si>
-    <t>Toutes les images doivent avoir des balises "alt" qui expliquent le contenu de l'image et s'affichent quand les images ne peuvent pas être chargées.
-Il faut éviter d'ajouter des balises inutiles.
-Les liens doivent avoir des descriptions pour faciliter la compréhension et améliorer l'expérience du visiteur.</t>
-  </si>
-  <si>
     <t>Les images ne sont pas toutes au format jpg, ne sont pas compressées et n'ont pas les mêmes dimensions.</t>
   </si>
   <si>
@@ -245,6 +230,31 @@
   </si>
   <si>
     <t>Il faut paramétrer l'appel aux fichiers Javascript.</t>
+  </si>
+  <si>
+    <t>Les balises "alt" des images et logos sont incorrectes. Celles-ci indiquent par exemple que l'agence est à Paris.
+La balise name="keywords" est inutile.</t>
+  </si>
+  <si>
+    <t>Les boutons et les liens, y compris ceux des icones de réseaux sociaux, n'ont pas de texte qui indique quelle est leur utilité.</t>
+  </si>
+  <si>
+    <t>Les balises "alt" sont incorrectes sur les images et les logos.
+Google ne tient pas compte de la balise name="keywords".</t>
+  </si>
+  <si>
+    <t>Toutes les images doivent avoir des balises "alt" qui expliquent le contenu de l'image et s'affichent quand les images ne peuvent pas être chargées.
+Il faut éviter d'ajouter des balises inutiles.</t>
+  </si>
+  <si>
+    <t>Sans texte explicatif, les boutons et les liens resteront incompréhensibles par les utilisateurs qui nécessitent d'un lecteur d'écran.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Les liens et les boutons doivent avoir des descriptions pour faciliter la compréhension et améliorer l'expérience du visiteur.</t>
+  </si>
+  <si>
+    <t>Rajouter du texte pour indiquer l'utilité des boutons et liens</t>
   </si>
 </sst>
 </file>
@@ -573,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z992"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -633,13 +643,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>43</v>
@@ -648,230 +658,249 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="170.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="124.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="170.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="343.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="343.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="152.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="152.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="143.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="143.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>66</v>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1850,13 +1879,15 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId4"/>
+  <pageSetup orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>